--- a/results/marker_coords_angle_f.xlsx
+++ b/results/marker_coords_angle_f.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\tomato-clips\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\tomato-clips\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE9ECB3-5220-4685-AA6F-CBA704945C10}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BDD60E-68AB-4DDF-925B-19E675F6D29B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="1416" windowWidth="17484" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="marker_coords_angle" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>x</t>
   </si>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -626,11 +626,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -701,6 +701,2354 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> körül</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>marker_coords_angle!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E3F-44EE-88F1-599D0F6C9D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>marker_coords_angle!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$G$4:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E3F-44EE-88F1-599D0F6C9D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>marker_coords_angle!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000044E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000053E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000000000000009E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E3F-44EE-88F1-599D0F6C9D42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="884299064"/>
+        <c:axId val="884296440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="884299064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884296440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="884296440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="884299064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>x körül</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>marker_coords_angle!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err x</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$A$21:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$F$21:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9999999999999993E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFB7-4304-9E27-7129A7C04B2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>marker_coords_angle!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$A$21:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$G$21:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9999999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFB7-4304-9E27-7129A7C04B2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>marker_coords_angle!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>err z</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$A$21:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>marker_coords_angle!$H$21:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000053E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6000000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9000000000000017E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFB7-4304-9E27-7129A7C04B2E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="892062976"/>
+        <c:axId val="892071176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="892062976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892071176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="892071176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="892062976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>113434</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8EF7BF-EB24-4395-B159-40CCB76FD919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88603697-B42F-423C-820A-CC6FD348DB76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1000,18 +3348,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -1033,7 +3381,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
@@ -1041,18 +3389,18 @@
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" s="9">
-        <v>1.4999999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C3" s="9">
-        <v>1.9E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="D3" s="10">
-        <v>0.45900000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>8</v>
@@ -1064,276 +3412,365 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>20</v>
       </c>
       <c r="B4" s="11">
-        <v>1.2E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="C4" s="11">
-        <v>2.3E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D4" s="12">
-        <v>0.46500000000000002</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="F4" s="13">
         <f>ABS(B4-B$3)</f>
-        <v>2.9999999999999992E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G4" s="13">
         <f t="shared" ref="G4:H4" si="0">ABS(C4-C$3)</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="H4" s="13">
         <f t="shared" si="0"/>
-        <v>6.0000000000000053E-3</v>
+        <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>40</v>
       </c>
       <c r="B5" s="9">
-        <v>0.01</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C5" s="9">
-        <v>2.1999999999999999E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D5" s="10">
-        <v>0.46500000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" ref="F5:F14" si="1">ABS(B5-B$3)</f>
-        <v>4.9999999999999992E-3</v>
+        <f t="shared" ref="F5:F9" si="1">ABS(B5-B$3)</f>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G5" s="13">
-        <f t="shared" ref="G5:G14" si="2">ABS(C5-C$3)</f>
-        <v>2.9999999999999992E-3</v>
+        <f t="shared" ref="G5:G9" si="2">ABS(C5-C$3)</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H5" s="13">
-        <f t="shared" ref="H5:H14" si="3">ABS(D5-D$3)</f>
-        <v>6.0000000000000053E-3</v>
+        <f t="shared" ref="H5:H9" si="3">ABS(D5-D$3)</f>
+        <v>5.0000000000000044E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>60</v>
       </c>
       <c r="B6" s="11">
-        <v>1.2E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C6" s="11">
-        <v>2.3E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D6" s="12">
-        <v>0.45</v>
+        <v>0.441</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="1"/>
-        <v>2.9999999999999992E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="3"/>
-        <v>9.000000000000008E-3</v>
+        <v>1.2000000000000011E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>-20</v>
       </c>
       <c r="B7" s="9">
-        <v>1.4E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="C7" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D7" s="10">
-        <v>0.46800000000000003</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="1"/>
-        <v>9.9999999999999915E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="2"/>
-        <v>6.0000000000000019E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" si="3"/>
-        <v>9.000000000000008E-3</v>
+        <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>-40</v>
       </c>
       <c r="B8" s="11">
-        <v>1.4E-2</v>
+        <v>-1E-3</v>
       </c>
       <c r="C8" s="11">
-        <v>2.5000000000000001E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D8" s="12">
-        <v>0.46200000000000002</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="1"/>
-        <v>9.9999999999999915E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="2"/>
-        <v>6.0000000000000019E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" si="3"/>
-        <v>3.0000000000000027E-3</v>
+        <v>6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>-60</v>
       </c>
       <c r="B9" s="9">
-        <v>1.2999999999999999E-2</v>
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="C9" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D9" s="10">
-        <v>0.45800000000000002</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="1"/>
-        <v>2E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="2"/>
-        <v>6.0000000000000019E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="3"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="C20" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.443</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.442</v>
+      </c>
+      <c r="F21" s="13">
+        <f>ABS(B21-B$20)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G21" s="13">
+        <f>ABS(C21-C$20)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H21" s="13">
+        <f>ABS(D21-D$20)</f>
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.437</v>
+      </c>
+      <c r="F22" s="13">
+        <f>ABS(B22-B$20)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G22" s="13">
+        <f>ABS(C22-C$20)</f>
+        <v>3.9999999999999992E-3</v>
+      </c>
+      <c r="H22" s="13">
+        <f>ABS(D22-D$20)</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>0</v>
-      </c>
-      <c r="B11" s="9">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="C11" s="9">
-        <v>-0.03</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>8</v>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>60</v>
+      </c>
+      <c r="B23" s="5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="F23" s="13">
+        <f>ABS(B23-B$20)</f>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="G23" s="13">
+        <f>ABS(C23-C$20)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H23" s="13">
+        <f>ABS(D23-D$20)</f>
+        <v>1.4000000000000012E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>-20</v>
+      </c>
+      <c r="B24" s="9">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="C24" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="F24" s="13">
+        <f>ABS(B24-B$20)</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G24" s="13">
+        <f>ABS(C24-C$20)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H24" s="13">
+        <f>ABS(D24-D$20)</f>
+        <v>1.6000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>-40</v>
+      </c>
+      <c r="B25" s="11">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="C25" s="11">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="F25" s="13">
+        <f>ABS(B25-B$20)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="5">
-        <v>-3.1E-2</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.438</v>
-      </c>
-      <c r="F12" s="13">
-        <f>ABS(B12-B$11)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="G12" s="13">
-        <f t="shared" ref="G12:H12" si="4">ABS(C12-C$11)</f>
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="H12" s="13">
-        <f>ABS(D12-D$11)</f>
-        <v>2.0000000000000018E-3</v>
+      <c r="G25" s="13">
+        <f>ABS(C25-C$20)</f>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="H25" s="13">
+        <f>ABS(D25-D$20)</f>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>40</v>
-      </c>
-      <c r="B13" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C13" s="2">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" ref="F13:F14" si="5">ABS(B13-B$11)</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G13" s="13">
-        <f t="shared" ref="G13:G14" si="6">ABS(C13-C$11)</f>
-        <v>8.9999999999999976E-3</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" ref="H13:H14" si="7">ABS(D13-D$11)</f>
-        <v>1.3000000000000012E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>60</v>
-      </c>
-      <c r="B14" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C14" s="5">
-        <v>-6.0000000000000001E-3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="F14" s="13">
-        <f t="shared" si="5"/>
-        <v>1E-3</v>
-      </c>
-      <c r="G14" s="13">
-        <f t="shared" si="6"/>
-        <v>2.4E-2</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000027E-2</v>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>-60</v>
+      </c>
+      <c r="B26" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C26" s="9">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="F26" s="13">
+        <f>ABS(B26-B$20)</f>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="G26" s="13">
+        <f>ABS(C26-C$20)</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
+      <c r="H26" s="13">
+        <f>ABS(D26-D$20)</f>
+        <v>1.9000000000000017E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F4:H9 F12:H14">
+  <conditionalFormatting sqref="F4:H9 F21:H26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1346,6 +3783,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/results/marker_coords_angle_f.xlsx
+++ b/results/marker_coords_angle_f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\tomato-clips\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BDD60E-68AB-4DDF-925B-19E675F6D29B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E8B6C1-274A-4700-9521-52E731B8D607}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,69 +717,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="hu-HU"/>
-              <a:t>y</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="hu-HU" baseline="0"/>
-              <a:t> körül</a:t>
-            </a:r>
-            <a:endParaRPr lang="hu-HU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6375109361329838E-2"/>
+          <c:y val="5.6387835840466305E-2"/>
+          <c:w val="0.88056933508311463"/>
+          <c:h val="0.74264040118404806"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -809,12 +759,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -906,12 +854,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1003,12 +949,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1089,6 +1033,8 @@
         <c:axId val="884299064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="-60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1106,6 +1052,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>szögelfordulás [°]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1135,7 +1136,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1151,6 +1152,7 @@
         <c:axId val="884296440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000004E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1168,6 +1170,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>hiba [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2921056454659033E-2"/>
+              <c:y val="0.32635686509702255"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1197,7 +1262,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1219,6 +1284,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.4524934383202116E-2"/>
+          <c:y val="0.90821383116169663"/>
+          <c:w val="0.29317235345581805"/>
+          <c:h val="9.1786168838303359E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1239,7 +1314,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1272,7 +1347,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
@@ -1299,64 +1376,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="hu-HU"/>
-              <a:t>x körül</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="hu-HU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6375109361329838E-2"/>
+          <c:y val="5.1261665208515605E-2"/>
+          <c:w val="0.88056933508311463"/>
+          <c:h val="0.76603674540682409"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1386,12 +1418,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1483,12 +1513,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1580,12 +1608,10 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1666,6 +1692,8 @@
         <c:axId val="892062976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="-60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1683,6 +1711,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>szögelfordulás [°]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1712,7 +1795,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1728,6 +1811,7 @@
         <c:axId val="892071176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000004E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1745,6 +1829,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>hiba [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6666666666666666E-2"/>
+              <c:y val="0.33416411490230385"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1774,7 +1921,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1796,6 +1943,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.45249343832021E-2"/>
+          <c:y val="0.91192840478273551"/>
+          <c:w val="0.29317235345581805"/>
+          <c:h val="8.3441965587634878E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1816,7 +1973,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1849,7 +2006,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="hu-HU"/>
     </a:p>
@@ -2978,16 +3137,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>301625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>13566</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>113434</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3015,15 +3174,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3350,8 +3509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3627,15 +3786,15 @@
         <v>0.442</v>
       </c>
       <c r="F21" s="13">
-        <f>ABS(B21-B$20)</f>
+        <f t="shared" ref="F21:H26" si="4">ABS(B21-B$20)</f>
         <v>1E-3</v>
       </c>
       <c r="G21" s="13">
-        <f>ABS(C21-C$20)</f>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="H21" s="13">
-        <f>ABS(D21-D$20)</f>
+        <f t="shared" si="4"/>
         <v>1.0000000000000009E-3</v>
       </c>
     </row>
@@ -3653,15 +3812,15 @@
         <v>0.437</v>
       </c>
       <c r="F22" s="13">
-        <f>ABS(B22-B$20)</f>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G22" s="13">
-        <f>ABS(C22-C$20)</f>
+        <f t="shared" si="4"/>
         <v>3.9999999999999992E-3</v>
       </c>
       <c r="H22" s="13">
-        <f>ABS(D22-D$20)</f>
+        <f t="shared" si="4"/>
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
@@ -3679,15 +3838,15 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="F23" s="13">
-        <f>ABS(B23-B$20)</f>
+        <f t="shared" si="4"/>
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="G23" s="13">
-        <f>ABS(C23-C$20)</f>
+        <f t="shared" si="4"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="H23" s="13">
-        <f>ABS(D23-D$20)</f>
+        <f t="shared" si="4"/>
         <v>1.4000000000000012E-2</v>
       </c>
     </row>
@@ -3705,15 +3864,15 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="F24" s="13">
-        <f>ABS(B24-B$20)</f>
+        <f t="shared" si="4"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="G24" s="13">
-        <f>ABS(C24-C$20)</f>
+        <f t="shared" si="4"/>
         <v>2E-3</v>
       </c>
       <c r="H24" s="13">
-        <f>ABS(D24-D$20)</f>
+        <f t="shared" si="4"/>
         <v>1.6000000000000014E-2</v>
       </c>
     </row>
@@ -3731,15 +3890,15 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="F25" s="13">
-        <f>ABS(B25-B$20)</f>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G25" s="13">
-        <f>ABS(C25-C$20)</f>
+        <f t="shared" si="4"/>
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="H25" s="13">
-        <f>ABS(D25-D$20)</f>
+        <f t="shared" si="4"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -3757,15 +3916,15 @@
         <v>0.46200000000000002</v>
       </c>
       <c r="F26" s="13">
-        <f>ABS(B26-B$20)</f>
+        <f t="shared" si="4"/>
         <v>6.9999999999999993E-3</v>
       </c>
       <c r="G26" s="13">
-        <f>ABS(C26-C$20)</f>
+        <f t="shared" si="4"/>
         <v>1.3000000000000001E-2</v>
       </c>
       <c r="H26" s="13">
-        <f>ABS(D26-D$20)</f>
+        <f t="shared" si="4"/>
         <v>1.9000000000000017E-2</v>
       </c>
     </row>
